--- a/ig/ch-epr-term/ValueSet-DocumentEntry.classCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.classCode.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT Swiss " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>2171000195109</t>
   </si>
   <si>
-    <t>Obstetrical Record (record artifact)</t>
+    <t>Obstetrical record (record artifact)</t>
   </si>
   <si>
     <t/>
@@ -124,7 +124,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>urn:oid:2.16.756.5.30.1.127.3.4</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>371531000</t>
@@ -160,7 +160,7 @@
     <t>734163000</t>
   </si>
   <si>
-    <t>Care Plan (record artifact)</t>
+    <t>Care plan (record artifact)</t>
   </si>
   <si>
     <t>440545006</t>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Record artifact (record artifact)</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -345,10 +342,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -708,7 +705,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-term/ValueSet-DocumentEntry.classCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.classCode.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.1.3 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.1.3 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
